--- a/R+D/research/Evaluation-2.xlsx
+++ b/R+D/research/Evaluation-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osins\Desktop\R&amp;D Project\lm-evaluation-harness\R+D\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6F9AF-8B4A-47AF-8BDA-A93F83E26EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90FD1CE-5A4A-4C99-80F4-70E2B9F459B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="0" windowWidth="10260" windowHeight="15585" firstSheet="1" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="POC" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ToDo" sheetId="5" r:id="rId4"/>
     <sheet name="Contaminated" sheetId="6" r:id="rId5"/>
     <sheet name="Arkusz1" sheetId="7" r:id="rId6"/>
+    <sheet name="Arkusz2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="335">
   <si>
     <t>MODEL</t>
   </si>
@@ -1049,9 +1050,6 @@
     <t>arithmetic</t>
   </si>
   <si>
-    <t>cmmlu</t>
-  </si>
-  <si>
     <t>super_glue</t>
   </si>
   <si>
@@ -1065,6 +1063,27 @@
   </si>
   <si>
     <t>bbh</t>
+  </si>
+  <si>
+    <t>Dodać try catch</t>
+  </si>
+  <si>
+    <t>Delta2</t>
+  </si>
+  <si>
+    <t>Web2</t>
+  </si>
+  <si>
+    <t>hotpot qa</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>PL dataset</t>
+  </si>
+  <si>
+    <t>POL EVAL -&gt;zbiór pytań z teleturnieju z 1 z 10 Poszukaj</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,12 +1574,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="171">
+  <dxfs count="181">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -15582,26 +15658,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979D5068-1D49-4DF6-B43E-B4ACE86B738B}">
   <dimension ref="C2:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
       <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -15612,7 +15688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
@@ -15624,7 +15700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -15648,7 +15724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>1</v>
       </c>
@@ -15670,7 +15746,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -15692,7 +15768,7 @@
         <v>7.8299999999999983</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -15714,7 +15790,7 @@
         <v>6.3900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -15736,7 +15812,7 @@
         <v>3.3700000000000045</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -15758,7 +15834,7 @@
         <v>-2.9899999999999949</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -15780,7 +15856,7 @@
         <v>-3.1600000000000108</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -15802,7 +15878,7 @@
         <v>-3.1600000000000108</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>4</v>
       </c>
@@ -15839,35 +15915,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6A2C2A-CBB9-49FC-9A88-9CB5326502DD}">
   <dimension ref="A1:CS72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AB36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD46" sqref="AD46"/>
+      <selection pane="bottomRight" activeCell="CJ6" sqref="CJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" customWidth="1"/>
-    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" customWidth="1"/>
+    <col min="45" max="45" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>187</v>
       </c>
@@ -16027,7 +16103,7 @@
       <c r="CO1" s="47"/>
       <c r="CP1" s="48"/>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
       <c r="B2" s="19" t="s">
         <v>128</v>
@@ -16312,7 +16388,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>131</v>
       </c>
@@ -16631,7 +16707,7 @@
         <v>1.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>132</v>
       </c>
@@ -16950,7 +17026,7 @@
         <v>1.9896551724137884E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>133</v>
       </c>
@@ -17269,7 +17345,7 @@
         <v>1.979310344827586E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>134</v>
       </c>
@@ -17588,7 +17664,7 @@
         <v>8.2862068965517312E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:97" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
         <v>192</v>
       </c>
@@ -17910,7 +17986,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:97" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -18232,7 +18308,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>73</v>
       </c>
@@ -18554,7 +18630,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>74</v>
       </c>
@@ -18876,7 +18952,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
         <v>75</v>
       </c>
@@ -19198,7 +19274,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
         <v>76</v>
       </c>
@@ -19520,7 +19596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>77</v>
       </c>
@@ -19842,7 +19918,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
         <v>78</v>
       </c>
@@ -20164,7 +20240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
         <v>79</v>
       </c>
@@ -20486,7 +20562,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>80</v>
       </c>
@@ -20808,7 +20884,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>81</v>
       </c>
@@ -21130,7 +21206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>82</v>
       </c>
@@ -21452,7 +21528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>83</v>
       </c>
@@ -21774,7 +21850,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
         <v>84</v>
       </c>
@@ -22096,7 +22172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>85</v>
       </c>
@@ -22418,7 +22494,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>86</v>
       </c>
@@ -22740,7 +22816,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>87</v>
       </c>
@@ -23062,7 +23138,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
         <v>88</v>
       </c>
@@ -23384,7 +23460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>89</v>
       </c>
@@ -23706,7 +23782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>90</v>
       </c>
@@ -24028,7 +24104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
         <v>91</v>
       </c>
@@ -24350,7 +24426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
         <v>92</v>
       </c>
@@ -24672,7 +24748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>93</v>
       </c>
@@ -24994,7 +25070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>94</v>
       </c>
@@ -25316,7 +25392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>95</v>
       </c>
@@ -25638,7 +25714,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
         <v>96</v>
       </c>
@@ -25960,7 +26036,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
         <v>97</v>
       </c>
@@ -26282,7 +26358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>98</v>
       </c>
@@ -26604,7 +26680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
         <v>99</v>
       </c>
@@ -26926,7 +27002,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>46</v>
       </c>
@@ -27248,7 +27324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
         <v>100</v>
       </c>
@@ -27570,7 +27646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
         <v>101</v>
       </c>
@@ -27892,7 +27968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
         <v>102</v>
       </c>
@@ -28214,7 +28290,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A40" s="30" t="s">
         <v>103</v>
       </c>
@@ -28536,7 +28612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
         <v>104</v>
       </c>
@@ -28858,7 +28934,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>105</v>
       </c>
@@ -29180,7 +29256,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
         <v>106</v>
       </c>
@@ -29502,7 +29578,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
         <v>107</v>
       </c>
@@ -29824,7 +29900,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A45" s="30" t="s">
         <v>108</v>
       </c>
@@ -30146,7 +30222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
         <v>109</v>
       </c>
@@ -30468,7 +30544,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A47" s="30" t="s">
         <v>110</v>
       </c>
@@ -30790,7 +30866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
         <v>111</v>
       </c>
@@ -31112,7 +31188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
         <v>112</v>
       </c>
@@ -31434,7 +31510,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
         <v>113</v>
       </c>
@@ -31756,7 +31832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>114</v>
       </c>
@@ -32078,7 +32154,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A52" s="30" t="s">
         <v>115</v>
       </c>
@@ -32400,7 +32476,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
         <v>116</v>
       </c>
@@ -32722,7 +32798,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A54" s="30" t="s">
         <v>117</v>
       </c>
@@ -33044,7 +33120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A55" s="30" t="s">
         <v>118</v>
       </c>
@@ -33366,7 +33442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A56" s="30" t="s">
         <v>119</v>
       </c>
@@ -33688,7 +33764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A57" s="30" t="s">
         <v>120</v>
       </c>
@@ -34010,7 +34086,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
         <v>121</v>
       </c>
@@ -34332,7 +34408,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>122</v>
       </c>
@@ -34654,7 +34730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A60" s="30" t="s">
         <v>123</v>
       </c>
@@ -34976,7 +35052,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A61" s="30" t="s">
         <v>124</v>
       </c>
@@ -35298,7 +35374,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A62" s="30" t="s">
         <v>125</v>
       </c>
@@ -35620,7 +35696,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A63" s="30" t="s">
         <v>126</v>
       </c>
@@ -35942,7 +36018,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:97" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="30" t="s">
         <v>127</v>
       </c>
@@ -36264,7 +36340,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:96" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A65" s="49" t="s">
         <v>316</v>
       </c>
@@ -36614,7 +36690,7 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A66" s="49"/>
       <c r="B66" s="15" t="s">
         <v>213</v>
@@ -36962,7 +37038,7 @@
         <v>-0.12739999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A67" s="49"/>
       <c r="B67" s="15" t="s">
         <v>314</v>
@@ -37279,7 +37355,7 @@
         <v>8.9773139745916528E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" x14ac:dyDescent="0.35">
       <c r="F68" s="11"/>
       <c r="I68" s="11"/>
       <c r="L68" s="11"/>
@@ -37290,18 +37366,25 @@
       <c r="AA68" s="11"/>
       <c r="AD68" s="11"/>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="BP1:BR1"/>
@@ -37318,599 +37401,592 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 D3:D64 D70:D73 D80:D1048576">
-    <cfRule type="cellIs" dxfId="170" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="183" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="183" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D64">
-    <cfRule type="cellIs" dxfId="168" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="167" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="181" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="181" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G64">
-    <cfRule type="cellIs" dxfId="165" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="164" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="164" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="162" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="179" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="179" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J64">
-    <cfRule type="cellIs" dxfId="160" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="161" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="161" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="157" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="177" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="177" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M64">
-    <cfRule type="cellIs" dxfId="155" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="158" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="158" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="152" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="175" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="175" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P64">
-    <cfRule type="cellIs" dxfId="150" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="143" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="147" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="173" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="173" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S64">
-    <cfRule type="cellIs" dxfId="145" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="146" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="142" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="171" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="171" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V64">
-    <cfRule type="cellIs" dxfId="140" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="149" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="137" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="169" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="169" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y64">
-    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="140" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
-    <cfRule type="cellIs" dxfId="132" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB64">
-    <cfRule type="cellIs" dxfId="130" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1">
-    <cfRule type="cellIs" dxfId="127" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="134" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="134" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE64">
-    <cfRule type="cellIs" dxfId="125" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="133" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1">
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="130" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="129" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH64">
-    <cfRule type="cellIs" dxfId="120" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="117" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="124" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK64">
-    <cfRule type="cellIs" dxfId="115" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1">
-    <cfRule type="cellIs" dxfId="112" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AN64">
-    <cfRule type="cellIs" dxfId="110" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1">
-    <cfRule type="cellIs" dxfId="107" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="114" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AQ64">
-    <cfRule type="cellIs" dxfId="105" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1">
-    <cfRule type="cellIs" dxfId="102" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3:AT64">
-    <cfRule type="cellIs" dxfId="100" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1">
-    <cfRule type="cellIs" dxfId="97" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AW64">
-    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="102" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ1">
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:AZ64">
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1">
-    <cfRule type="cellIs" dxfId="87" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3:BC64">
-    <cfRule type="cellIs" dxfId="85" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1">
-    <cfRule type="cellIs" dxfId="82" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF64">
-    <cfRule type="cellIs" dxfId="80" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1">
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BI64">
-    <cfRule type="cellIs" dxfId="75" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL1">
-    <cfRule type="cellIs" dxfId="72" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL3:BL64">
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO1">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO64">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR1">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR3:BR64">
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU1">
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3:BU64">
-    <cfRule type="cellIs" dxfId="55" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX1">
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX3:BX64">
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA1">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3:CA64">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD1">
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD3:CD64">
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG1">
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG3:CG64">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ1">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ3:CJ64">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM1">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM3:CM64">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP1">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP3:CP64">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37922,18 +37998,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AED8ED-DD86-4CDD-91E9-96C490C6F570}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>187</v>
       </c>
@@ -37983,7 +38059,7 @@
       <c r="AA1" s="47"/>
       <c r="AB1" s="48"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="53"/>
       <c r="B2" s="19" t="s">
         <v>128</v>
@@ -38067,7 +38143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>188</v>
       </c>
@@ -38162,7 +38238,7 @@
         <v>-1.4399999999999968E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>189</v>
       </c>
@@ -38255,6 +38331,24 @@
       <c r="AB4" s="13">
         <f t="shared" si="7"/>
         <v>9.4000000000000195E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="R5">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="S5">
+        <f>R5-Q3</f>
+        <v>1.3900000000000023E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="R6">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="S6">
+        <f>R6-Q4</f>
+        <v>3.1600000000000017E-2</v>
       </c>
     </row>
   </sheetData>
@@ -38271,74 +38365,74 @@
     <mergeCell ref="T1:V1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 D3:D4">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1 G3:G4">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 J3:J4">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1 M3:M4">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1 P3:P4">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1 S3:S4">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V4">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1 Y3:Y4">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1 AB3:AB4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38354,224 +38448,224 @@
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>284</v>
       </c>
@@ -38590,9 +38684,9 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -38600,7 +38694,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -38608,7 +38702,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -38616,7 +38710,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -38624,7 +38718,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -38632,7 +38726,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>292</v>
       </c>
@@ -38640,7 +38734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -38648,7 +38742,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -38656,7 +38750,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -38664,7 +38758,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -38672,7 +38766,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -38680,7 +38774,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -38688,7 +38782,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -38696,7 +38790,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>292</v>
       </c>
@@ -38704,7 +38798,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -38712,7 +38806,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -38720,7 +38814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>291</v>
       </c>
@@ -38728,7 +38822,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -38736,7 +38830,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -38744,7 +38838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>294</v>
       </c>
@@ -38752,7 +38846,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -38760,7 +38854,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>292</v>
       </c>
@@ -38768,7 +38862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -38776,7 +38870,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -38784,7 +38878,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>291</v>
       </c>
@@ -38792,7 +38886,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>292</v>
       </c>
@@ -38800,7 +38894,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -38808,7 +38902,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>294</v>
       </c>
@@ -38816,7 +38910,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>291</v>
       </c>
@@ -38824,7 +38918,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>292</v>
       </c>
@@ -38832,7 +38926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -38840,7 +38934,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -38848,7 +38942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>291</v>
       </c>
@@ -38856,7 +38950,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -38864,7 +38958,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>293</v>
       </c>
@@ -38872,7 +38966,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>294</v>
       </c>
@@ -38880,12 +38974,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>291</v>
       </c>
@@ -38893,7 +38987,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -38901,7 +38995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>293</v>
       </c>
@@ -38909,12 +39003,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -38922,7 +39016,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>292</v>
       </c>
@@ -38930,7 +39024,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>293</v>
       </c>
@@ -38938,7 +39032,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>294</v>
       </c>
@@ -38946,7 +39040,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>291</v>
       </c>
@@ -38954,7 +39048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>292</v>
       </c>
@@ -38962,7 +39056,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>293</v>
       </c>
@@ -38970,7 +39064,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -38978,7 +39072,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -38986,7 +39080,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>292</v>
       </c>
@@ -38994,7 +39088,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>293</v>
       </c>
@@ -39002,7 +39096,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>294</v>
       </c>
@@ -39010,7 +39104,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -39018,7 +39112,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>292</v>
       </c>
@@ -39026,7 +39120,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>293</v>
       </c>
@@ -39034,7 +39128,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>294</v>
       </c>
@@ -39042,12 +39136,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>290</v>
       </c>
@@ -39063,61 +39157,73 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533557A5-8F9C-4270-B197-C402D9A86FC7}">
-  <dimension ref="C5:C14"/>
+  <dimension ref="C5:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>321</v>
       </c>
+      <c r="E6" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>188</v>
       </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>322</v>
       </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>328</v>
       </c>
     </row>
@@ -39126,24 +39232,2341 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4254A04B-22B0-4BA0-A879-0D576AB12710}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="G1" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>0.3679</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.4032</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C64" si="0">B3-A3</f>
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.4007</v>
+      </c>
+      <c r="E3">
+        <f>D3-A3</f>
+        <v>3.2799999999999996E-2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I64" si="1">H3-G3</f>
+        <v>4.539999999999994E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="K3">
+        <f>J3-G3</f>
+        <v>4.109999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.3528</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999855E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E64" si="2">D4-A4</f>
+        <v>1.21E-2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4899999999999978E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K64" si="3">J4-G4</f>
+        <v>2.6600000000000013E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>0.4113</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.4783</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.4763</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="1"/>
+        <v>7.5300000000000034E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>7.3699999999999988E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>0.4007</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.4501</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>3.7399999999999989E-2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9200000000000013E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>2.0299999999999985E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="16">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>3.4200000000000008E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>3.1700000000000006E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="1"/>
+        <v>4.1500000000000037E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>4.1600000000000026E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>0.246</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.254</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>5.5599999999999983E-2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.7600000000000031E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>-2.3800000000000043E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="21">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.8100000000000005E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>-1.8100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="21">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.4118</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.4500000000000022E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.4657</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2.9399999999999982E-2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999044E-3</v>
+      </c>
+      <c r="J10">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-2.5300000000000045E-2</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.6371</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.6371</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>1.2700000000000045E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="21">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.46279999999999999</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>-5.7900000000000063E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-7.4400000000000077E-2</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3100000000000018E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>4.9600000000000088E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5500000000000049E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>9.2000000000000415E-3</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7100000000000022E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>5.5600000000000094E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2300000000000033E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>5.5200000000000027E-2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="1"/>
+        <v>8.5900000000000032E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>6.1299999999999966E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="21">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>8.5999999999999965E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>8.5999999999999965E-3</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0500000000000036E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>3.4700000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.2324</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999939E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.2492</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000015E-2</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.3352</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6899999999999988E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>3.9100000000000024E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.4405</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>2.250000000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="1"/>
+        <v>6.4300000000000024E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.5595</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>3.8599999999999968E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="21">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>6.1699999999999977E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>2.7700000000000002E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3200000000000016E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>3.0799999999999939E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="21">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.599999999999993E-3</v>
+      </c>
+      <c r="D19">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-1.2999999999999678E-3</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.3664</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.9000000000000128E-3</v>
+      </c>
+      <c r="J19">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000058E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="21">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12860000000000005</v>
+      </c>
+      <c r="D20">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0.12280000000000002</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1462</v>
+      </c>
+      <c r="J20">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.15790000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.38</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.44</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="21">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1499999999999981E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>2.2699999999999998E-2</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0300000000000076E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>6.409999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="21">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.36990000000000001</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0399999999999991E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>4.6199999999999963E-2</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.10980000000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.4798</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.10410000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.37</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="21">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1399999999999983E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.48880000000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>5.8300000000000018E-2</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="1"/>
+        <v>5.8300000000000018E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>5.8300000000000018E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="21">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="0"/>
+        <v>9.7099999999999964E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.14559999999999995</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="1"/>
+        <v>5.8200000000000029E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>7.7699999999999991E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="21">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.5726</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>5.1200000000000023E-2</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="1"/>
+        <v>6.4099999999999935E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>6.8400000000000016E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.53</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="J28">
+        <v>0.63</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="21">
+        <v>0.47770000000000001</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1724</v>
+      </c>
+      <c r="D29">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.16469999999999996</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1583</v>
+      </c>
+      <c r="J29">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0.15959999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="21">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9600000000000006E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1.6299999999999981E-2</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5899999999999932E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>3.2599999999999962E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.2908</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7799999999999983E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>3.9099999999999968E-2</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1199999999999997E-2</v>
+      </c>
+      <c r="J31">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>2.8299999999999992E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="21">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.0399999999999991E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="1"/>
+        <v>1.8399999999999972E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="21">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="0"/>
+        <v>2.410000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.42170000000000002</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="J33">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>-1.8100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="21">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" si="0"/>
+        <v>2.6300000000000018E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>9.650000000000003E-2</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.3246</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999987E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.2281</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-1.7500000000000016E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="21">
+        <v>0.5202</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0399999999999991E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>2.5299999999999989E-2</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.61619999999999997</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="1"/>
+        <v>6.5699999999999981E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>4.0399999999999991E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="21">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1800000000000013E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.4819</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>4.1499999999999981E-2</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.5907</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="1"/>
+        <v>6.2200000000000033E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>4.6599999999999975E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="21">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="0"/>
+        <v>4.6099999999999974E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2.5599999999999956E-2</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8499999999999979E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="21">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="0"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000037E-2</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>7.1399999999999963E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="21">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.5615</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>7.889999999999997E-2</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.622</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="1"/>
+        <v>6.2400000000000011E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>2.9399999999999982E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="21">
+        <v>0.4733</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999956E-3</v>
+      </c>
+      <c r="D40">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>4.5800000000000007E-2</v>
+      </c>
+      <c r="G40" s="21">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.58020000000000005</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0600000000000072E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>2.2900000000000031E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="21">
+        <v>0.3448</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" si="0"/>
+        <v>4.5700000000000018E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>1.7900000000000027E-2</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2499999999999982E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>4.4199999999999962E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="21">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="B42" s="11">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="0"/>
+        <v>8.1900000000000028E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>7.2800000000000031E-2</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.4909</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6399999999999988E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.4909</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="21">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.2199999999999989E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="1"/>
+        <v>3.2700000000000062E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000077E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="21">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.4899999999999913E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.5423</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>-3.9799999999999947E-2</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9800000000000058E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>2.9900000000000038E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G45" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.77</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.31</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="G46" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="21">
+        <v>0.5111</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.479999999999998E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>-5.9199999999999975E-2</v>
+      </c>
+      <c r="G47" s="21">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="1"/>
+        <v>0.10370000000000007</v>
+      </c>
+      <c r="J47">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>7.4099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="21">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="0"/>
+        <v>5.2600000000000036E-2</v>
+      </c>
+      <c r="D48">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>2.629999999999999E-2</v>
+      </c>
+      <c r="G48" s="21">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="1"/>
+        <v>8.550000000000002E-2</v>
+      </c>
+      <c r="J48">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>7.889999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="21">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="B49" s="11">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="C49" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5600000000000038E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>8.340000000000003E-2</v>
+      </c>
+      <c r="G49" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>2.0800000000000041E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C50" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.26</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.4</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C51" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.34</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>-2.9999999999999971E-2</v>
+      </c>
+      <c r="G51" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.33</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="D52">
+        <v>0.35</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="G52" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="J52">
+        <v>0.4</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="21">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000016E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>6.8599999999999967E-2</v>
+      </c>
+      <c r="G53" s="21">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="B54" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="D54">
+        <v>0.6</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="G54" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="21">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C55" s="13">
+        <f t="shared" si="0"/>
+        <v>4.6800000000000008E-2</v>
+      </c>
+      <c r="D55">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>5.1099999999999979E-2</v>
+      </c>
+      <c r="G55" s="21">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0.434</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.300000000000026E-3</v>
+      </c>
+      <c r="J55">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>-8.5000000000000075E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="21">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="C56" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.1399999999999992E-2</v>
+      </c>
+      <c r="D56">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>-4.1399999999999992E-2</v>
+      </c>
+      <c r="G56" s="21">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="1"/>
+        <v>2.0699999999999941E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>2.0699999999999941E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="21">
+        <v>0.254</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0200000000000022E-2</v>
+      </c>
+      <c r="D57">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>4.2300000000000004E-2</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I57" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4899999999999995E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>5.5499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="21">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.4677</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="0"/>
+        <v>7.0900000000000019E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>6.7700000000000038E-2</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.5645</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" si="1"/>
+        <v>6.7699999999999982E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="21">
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0.3054</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="0"/>
+        <v>3.4500000000000031E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>1.9700000000000051E-2</v>
+      </c>
+      <c r="G59" s="21">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="I59" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="J59">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0.11330000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="B60" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0.38</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="G60" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999534E-3</v>
+      </c>
+      <c r="J60">
+        <v>0.46</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999534E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="21">
+        <v>0.2185</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="C61" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8199999999999993E-2</v>
+      </c>
+      <c r="D61">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>4.4500000000000012E-2</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I61" s="13">
+        <f t="shared" si="1"/>
+        <v>8.5100000000000009E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>4.4399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="21">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="B62" s="11">
+        <v>0.245</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9799999999999984E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>3.3099999999999963E-2</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="I62" s="13">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999948E-3</v>
+      </c>
+      <c r="J62">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>1.9799999999999984E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="21">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="C63" s="13">
+        <f t="shared" si="0"/>
+        <v>9.199999999999986E-3</v>
+      </c>
+      <c r="D63">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>4.599999999999993E-3</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="I63" s="13">
+        <f t="shared" si="1"/>
+        <v>4.699999999999982E-3</v>
+      </c>
+      <c r="J63">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="28">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="B64" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="C64" s="18">
+        <f t="shared" si="0"/>
+        <v>2.679999999999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>8.8999999999999635E-3</v>
+      </c>
+      <c r="G64" s="28">
+        <v>0.3125</v>
+      </c>
+      <c r="H64" s="25">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="I64" s="18">
+        <f t="shared" si="1"/>
+        <v>-3.570000000000001E-2</v>
+      </c>
+      <c r="J64">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>-4.4599999999999973E-2</v>
+      </c>
+    </row>
+    <row r="65" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C64">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I64">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C76B75E76FBA8D43BC6655755334F736" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="dce19c37d23f49fdcb9dd2a67bb20b41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7adeddb8-0c6e-4b6e-8475-37b16e991332" xmlns:ns4="dbfdd765-989a-4dbb-b48c-5d457b2b54fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1d6f19661910fe906d3ed9295f1fb38" ns3:_="" ns4:_="">
     <xsd:import namespace="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
@@ -39382,10 +41805,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
+    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39408,20 +41859,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
-    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/R+D/research/Evaluation-2.xlsx
+++ b/R+D/research/Evaluation-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osins\Desktop\R&amp;D Project\lm-evaluation-harness\R+D\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90FD1CE-5A4A-4C99-80F4-70E2B9F459B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975ED2EB-682B-4903-A76B-A553DAD8D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="POC" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="337">
   <si>
     <t>MODEL</t>
   </si>
@@ -1085,6 +1085,12 @@
   <si>
     <t>POL EVAL -&gt;zbiór pytań z teleturnieju z 1 z 10 Poszukaj</t>
   </si>
+  <si>
+    <t>scp -i "ścieżka/do/kluczSSH.pem" -r ./webservice ec2-54-164-82-144.compute-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>curl 34.207.226.68:8080/factors/10</t>
+  </si>
 </sst>
 </file>
 
@@ -1544,6 +1550,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1574,7 +1581,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -15662,22 +15668,22 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -15688,19 +15694,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="E4" s="44" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="M4" s="45" t="s">
+      <c r="F4" s="45"/>
+      <c r="M4" s="46" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -15719,12 +15725,12 @@
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="45"/>
+      <c r="M5" s="46"/>
       <c r="N5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>1</v>
       </c>
@@ -15746,7 +15752,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>2</v>
       </c>
@@ -15768,7 +15774,7 @@
         <v>7.8299999999999983</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -15790,7 +15796,7 @@
         <v>6.3900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -15812,7 +15818,7 @@
         <v>3.3700000000000045</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -15834,7 +15840,7 @@
         <v>-2.9899999999999949</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -15856,7 +15862,7 @@
         <v>-3.1600000000000108</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -15878,7 +15884,7 @@
         <v>-3.1600000000000108</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>4</v>
       </c>
@@ -15922,189 +15928,189 @@
       <selection pane="bottomRight" activeCell="CJ6" sqref="CJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" customWidth="1"/>
-    <col min="19" max="19" width="14.7265625" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" customWidth="1"/>
-    <col min="45" max="45" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="46" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="46" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="46" t="s">
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="46" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="46" t="s">
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="46" t="s">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="46" t="s">
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="46" t="s">
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="46" t="s">
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="46" t="s">
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="48"/>
-      <c r="BV1" s="46" t="s">
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="BW1" s="47"/>
-      <c r="BX1" s="48"/>
-      <c r="BY1" s="46" t="s">
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="BZ1" s="47"/>
-      <c r="CA1" s="48"/>
-      <c r="CB1" s="46" t="s">
+      <c r="BZ1" s="48"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="CC1" s="47"/>
-      <c r="CD1" s="48"/>
-      <c r="CE1" s="46" t="s">
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="CF1" s="47"/>
-      <c r="CG1" s="48"/>
-      <c r="CH1" s="46" t="s">
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="49"/>
+      <c r="CH1" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="CI1" s="47"/>
-      <c r="CJ1" s="48"/>
-      <c r="CK1" s="46" t="s">
+      <c r="CI1" s="48"/>
+      <c r="CJ1" s="49"/>
+      <c r="CK1" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="48"/>
-      <c r="CN1" s="46" t="s">
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="49"/>
+      <c r="CN1" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="CO1" s="47"/>
-      <c r="CP1" s="48"/>
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="49"/>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
+    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
       <c r="B2" s="19" t="s">
         <v>128</v>
       </c>
@@ -16388,7 +16394,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>131</v>
       </c>
@@ -16707,7 +16713,7 @@
         <v>1.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>132</v>
       </c>
@@ -17026,7 +17032,7 @@
         <v>1.9896551724137884E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>133</v>
       </c>
@@ -17345,7 +17351,7 @@
         <v>1.979310344827586E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>134</v>
       </c>
@@ -17664,7 +17670,7 @@
         <v>8.2862068965517312E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:97" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>192</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:97" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:97" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -18308,7 +18314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>73</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>74</v>
       </c>
@@ -18952,7 +18958,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>75</v>
       </c>
@@ -19274,7 +19280,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>76</v>
       </c>
@@ -19596,7 +19602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>77</v>
       </c>
@@ -19918,7 +19924,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>78</v>
       </c>
@@ -20240,7 +20246,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>79</v>
       </c>
@@ -20562,7 +20568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>80</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>81</v>
       </c>
@@ -21206,7 +21212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>82</v>
       </c>
@@ -21528,7 +21534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>83</v>
       </c>
@@ -21850,7 +21856,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>84</v>
       </c>
@@ -22172,7 +22178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>85</v>
       </c>
@@ -22494,7 +22500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>86</v>
       </c>
@@ -22816,7 +22822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>87</v>
       </c>
@@ -23138,7 +23144,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>88</v>
       </c>
@@ -23460,7 +23466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>89</v>
       </c>
@@ -23782,7 +23788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>90</v>
       </c>
@@ -24104,7 +24110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>91</v>
       </c>
@@ -24426,7 +24432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>92</v>
       </c>
@@ -24748,7 +24754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>93</v>
       </c>
@@ -25070,7 +25076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>94</v>
       </c>
@@ -25392,7 +25398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>95</v>
       </c>
@@ -25714,7 +25720,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>96</v>
       </c>
@@ -26036,7 +26042,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>97</v>
       </c>
@@ -26358,7 +26364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>98</v>
       </c>
@@ -26680,7 +26686,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>99</v>
       </c>
@@ -27002,7 +27008,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>46</v>
       </c>
@@ -27324,7 +27330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>100</v>
       </c>
@@ -27646,7 +27652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>101</v>
       </c>
@@ -27968,7 +27974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>102</v>
       </c>
@@ -28290,7 +28296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>103</v>
       </c>
@@ -28612,7 +28618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>104</v>
       </c>
@@ -28934,7 +28940,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>105</v>
       </c>
@@ -29256,7 +29262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>106</v>
       </c>
@@ -29578,7 +29584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>107</v>
       </c>
@@ -29900,7 +29906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>108</v>
       </c>
@@ -30222,7 +30228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>109</v>
       </c>
@@ -30544,7 +30550,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>110</v>
       </c>
@@ -30866,7 +30872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>111</v>
       </c>
@@ -31188,7 +31194,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>112</v>
       </c>
@@ -31510,7 +31516,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>113</v>
       </c>
@@ -31832,7 +31838,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>114</v>
       </c>
@@ -32154,7 +32160,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>115</v>
       </c>
@@ -32476,7 +32482,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>116</v>
       </c>
@@ -32798,7 +32804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>117</v>
       </c>
@@ -33120,7 +33126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>118</v>
       </c>
@@ -33442,7 +33448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>119</v>
       </c>
@@ -33764,7 +33770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>120</v>
       </c>
@@ -34086,7 +34092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>121</v>
       </c>
@@ -34408,7 +34414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>122</v>
       </c>
@@ -34730,7 +34736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>123</v>
       </c>
@@ -35052,7 +35058,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>124</v>
       </c>
@@ -35374,7 +35380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>125</v>
       </c>
@@ -35696,7 +35702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>126</v>
       </c>
@@ -36018,7 +36024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:97" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:97" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30" t="s">
         <v>127</v>
       </c>
@@ -36340,8 +36346,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:96" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:96" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
         <v>316</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -36690,8 +36696,8 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A66" s="49"/>
+    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
       <c r="B66" s="15" t="s">
         <v>213</v>
       </c>
@@ -37038,8 +37044,8 @@
         <v>-0.12739999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A67" s="49"/>
+    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
       <c r="B67" s="15" t="s">
         <v>314</v>
       </c>
@@ -37355,7 +37361,7 @@
         <v>8.9773139745916528E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:96" x14ac:dyDescent="0.25">
       <c r="F68" s="11"/>
       <c r="I68" s="11"/>
       <c r="L68" s="11"/>
@@ -37366,25 +37372,18 @@
       <c r="AA68" s="11"/>
       <c r="AD68" s="11"/>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="BP1:BR1"/>
@@ -37401,11 +37400,18 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 D3:D64 D70:D73 D80:D1048576">
     <cfRule type="cellIs" dxfId="180" priority="184" operator="lessThan">
@@ -38004,63 +38010,63 @@
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="46" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="46" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
       <c r="B2" s="19" t="s">
         <v>128</v>
       </c>
@@ -38143,7 +38149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>188</v>
       </c>
@@ -38238,7 +38244,7 @@
         <v>-1.4399999999999968E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>189</v>
       </c>
@@ -38333,7 +38339,7 @@
         <v>9.4000000000000195E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="R5">
         <v>0.69910000000000005</v>
       </c>
@@ -38342,7 +38348,7 @@
         <v>1.3900000000000023E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="R6">
         <v>0.38650000000000001</v>
       </c>
@@ -38448,224 +38454,224 @@
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>284</v>
       </c>
@@ -38684,9 +38690,9 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -38694,7 +38700,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -38702,7 +38708,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -38710,7 +38716,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -38718,7 +38724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -38726,7 +38732,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>292</v>
       </c>
@@ -38734,7 +38740,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -38742,7 +38748,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -38750,7 +38756,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -38758,7 +38764,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -38766,7 +38772,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -38774,7 +38780,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -38782,7 +38788,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -38790,7 +38796,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>292</v>
       </c>
@@ -38798,7 +38804,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -38806,7 +38812,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -38814,7 +38820,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>291</v>
       </c>
@@ -38822,7 +38828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -38830,7 +38836,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -38838,7 +38844,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>294</v>
       </c>
@@ -38846,7 +38852,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -38854,7 +38860,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>292</v>
       </c>
@@ -38862,7 +38868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -38870,7 +38876,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -38878,7 +38884,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>291</v>
       </c>
@@ -38886,7 +38892,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>292</v>
       </c>
@@ -38894,7 +38900,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -38902,7 +38908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>294</v>
       </c>
@@ -38910,7 +38916,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>291</v>
       </c>
@@ -38918,7 +38924,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>292</v>
       </c>
@@ -38926,7 +38932,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -38934,7 +38940,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -38942,7 +38948,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>291</v>
       </c>
@@ -38950,7 +38956,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -38958,7 +38964,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>293</v>
       </c>
@@ -38966,7 +38972,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>294</v>
       </c>
@@ -38974,12 +38980,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>291</v>
       </c>
@@ -38987,7 +38993,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -38995,7 +39001,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>293</v>
       </c>
@@ -39003,12 +39009,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -39016,7 +39022,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>292</v>
       </c>
@@ -39024,7 +39030,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>293</v>
       </c>
@@ -39032,7 +39038,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>294</v>
       </c>
@@ -39040,7 +39046,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>291</v>
       </c>
@@ -39048,7 +39054,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>292</v>
       </c>
@@ -39056,7 +39062,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>293</v>
       </c>
@@ -39064,7 +39070,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -39072,7 +39078,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -39080,7 +39086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>292</v>
       </c>
@@ -39088,7 +39094,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>293</v>
       </c>
@@ -39096,7 +39102,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>294</v>
       </c>
@@ -39104,7 +39110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -39112,7 +39118,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>292</v>
       </c>
@@ -39120,7 +39126,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>293</v>
       </c>
@@ -39128,7 +39134,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>294</v>
       </c>
@@ -39136,12 +39142,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>290</v>
       </c>
@@ -39157,31 +39163,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533557A5-8F9C-4270-B197-C402D9A86FC7}">
-  <dimension ref="C5:F15"/>
+  <dimension ref="C5:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="44" t="s">
         <v>331</v>
       </c>
       <c r="F6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>188</v>
       </c>
@@ -39189,7 +39195,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>322</v>
       </c>
@@ -39197,34 +39203,42 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>328</v>
+      </c>
+      <c r="H15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -39240,21 +39254,21 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="G1" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>128</v>
       </c>
@@ -39286,7 +39300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>0.3679</v>
       </c>
@@ -39322,7 +39336,7 @@
         <v>4.109999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.34410000000000002</v>
       </c>
@@ -39358,7 +39372,7 @@
         <v>2.6600000000000013E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.4113</v>
       </c>
@@ -39394,7 +39408,7 @@
         <v>7.3699999999999988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.4007</v>
       </c>
@@ -39430,7 +39444,7 @@
         <v>2.0299999999999985E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>0.32450000000000001</v>
       </c>
@@ -39466,7 +39480,7 @@
         <v>4.1600000000000026E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>0.246</v>
       </c>
@@ -39502,7 +39516,7 @@
         <v>-2.3800000000000043E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>0.46060000000000001</v>
       </c>
@@ -39538,7 +39552,7 @@
         <v>-1.8100000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>0.43630000000000002</v>
       </c>
@@ -39574,7 +39588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>0.43880000000000002</v>
       </c>
@@ -39610,7 +39624,7 @@
         <v>1.2700000000000045E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>0.52070000000000005</v>
       </c>
@@ -39646,7 +39660,7 @@
         <v>4.9600000000000088E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>0.43519999999999998</v>
       </c>
@@ -39682,7 +39696,7 @@
         <v>5.5600000000000094E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>0.33129999999999998</v>
       </c>
@@ -39718,7 +39732,7 @@
         <v>6.1299999999999966E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>0.36420000000000002</v>
       </c>
@@ -39754,7 +39768,7 @@
         <v>3.4700000000000009E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>0.23799999999999999</v>
       </c>
@@ -39790,7 +39804,7 @@
         <v>3.9100000000000024E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>0.41799999999999998</v>
       </c>
@@ -39826,7 +39840,7 @@
         <v>3.8599999999999968E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>0.44140000000000001</v>
       </c>
@@ -39862,7 +39876,7 @@
         <v>3.0799999999999939E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>0.29599999999999999</v>
       </c>
@@ -39898,7 +39912,7 @@
         <v>6.5000000000000058E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>0.52049999999999996</v>
       </c>
@@ -39934,7 +39948,7 @@
         <v>0.15790000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>0.34</v>
       </c>
@@ -39970,7 +39984,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>0.36599999999999999</v>
       </c>
@@ -40006,7 +40020,7 @@
         <v>6.409999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>0.32950000000000002</v>
       </c>
@@ -40042,7 +40056,7 @@
         <v>0.10410000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>0.31</v>
       </c>
@@ -40078,7 +40092,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>0.43049999999999999</v>
       </c>
@@ -40114,7 +40128,7 @@
         <v>5.8300000000000018E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>0.42720000000000002</v>
       </c>
@@ -40150,7 +40164,7 @@
         <v>7.7699999999999991E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0.52139999999999997</v>
       </c>
@@ -40186,7 +40200,7 @@
         <v>6.8400000000000016E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>0.43</v>
       </c>
@@ -40222,7 +40236,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>0.47770000000000001</v>
       </c>
@@ -40258,7 +40272,7 @@
         <v>0.15959999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>0.43790000000000001</v>
       </c>
@@ -40294,7 +40308,7 @@
         <v>3.2599999999999962E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>0.27300000000000002</v>
       </c>
@@ -40330,7 +40344,7 @@
         <v>2.8299999999999992E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>0.38600000000000001</v>
       </c>
@@ -40366,7 +40380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>0.38550000000000001</v>
       </c>
@@ -40402,7 +40416,7 @@
         <v>-1.8100000000000005E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>0.21929999999999999</v>
       </c>
@@ -40438,7 +40452,7 @@
         <v>-1.7500000000000016E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>0.5202</v>
       </c>
@@ -40474,7 +40488,7 @@
         <v>4.0399999999999991E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>0.44040000000000001</v>
       </c>
@@ -40510,7 +40524,7 @@
         <v>4.6599999999999975E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>0.31030000000000002</v>
       </c>
@@ -40546,7 +40560,7 @@
         <v>-2.5000000000000022E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>0.31929999999999997</v>
       </c>
@@ -40582,7 +40596,7 @@
         <v>7.1399999999999963E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>0.44950000000000001</v>
       </c>
@@ -40618,7 +40632,7 @@
         <v>2.9399999999999982E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>0.4733</v>
       </c>
@@ -40654,7 +40668,7 @@
         <v>2.2900000000000031E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>0.3448</v>
       </c>
@@ -40690,7 +40704,7 @@
         <v>4.4199999999999962E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>0.35449999999999998</v>
       </c>
@@ -40726,7 +40740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>0.39179999999999998</v>
       </c>
@@ -40762,7 +40776,7 @@
         <v>2.4500000000000077E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>0.58209999999999995</v>
       </c>
@@ -40798,7 +40812,7 @@
         <v>2.9900000000000038E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>0.53</v>
       </c>
@@ -40834,7 +40848,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>0.26</v>
       </c>
@@ -40870,7 +40884,7 @@
         <v>1.999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>0.5111</v>
       </c>
@@ -40906,7 +40920,7 @@
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>0.40129999999999999</v>
       </c>
@@ -40942,7 +40956,7 @@
         <v>7.889999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>0.39579999999999999</v>
       </c>
@@ -40978,7 +40992,7 @@
         <v>2.0800000000000041E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>0.26</v>
       </c>
@@ -41014,7 +41028,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>0.37</v>
       </c>
@@ -41050,7 +41064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>0.3</v>
       </c>
@@ -41086,7 +41100,7 @@
         <v>0.11000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>0.22550000000000001</v>
       </c>
@@ -41122,7 +41136,7 @@
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>0.52</v>
       </c>
@@ -41158,7 +41172,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>0.35320000000000001</v>
       </c>
@@ -41194,7 +41208,7 @@
         <v>-8.5000000000000075E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>0.42759999999999998</v>
       </c>
@@ -41230,7 +41244,7 @@
         <v>2.0699999999999941E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>0.254</v>
       </c>
@@ -41266,7 +41280,7 @@
         <v>5.5499999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>0.39679999999999999</v>
       </c>
@@ -41302,7 +41316,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>0.27089999999999997</v>
       </c>
@@ -41338,7 +41352,7 @@
         <v>0.11330000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>0.34</v>
       </c>
@@ -41374,7 +41388,7 @@
         <v>-9.9999999999999534E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>0.2185</v>
       </c>
@@ -41410,7 +41424,7 @@
         <v>4.4399999999999995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>0.22520000000000001</v>
       </c>
@@ -41446,7 +41460,7 @@
         <v>1.9799999999999984E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>0.26390000000000002</v>
       </c>
@@ -41482,7 +41496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>0.34820000000000001</v>
       </c>
@@ -41518,7 +41532,7 @@
         <v>-4.4599999999999973E-2</v>
       </c>
     </row>
-    <row r="65" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -41567,6 +41581,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C76B75E76FBA8D43BC6655755334F736" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="dce19c37d23f49fdcb9dd2a67bb20b41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7adeddb8-0c6e-4b6e-8475-37b16e991332" xmlns:ns4="dbfdd765-989a-4dbb-b48c-5d457b2b54fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1d6f19661910fe906d3ed9295f1fb38" ns3:_="" ns4:_="">
     <xsd:import namespace="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
@@ -41805,38 +41836,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
-    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41859,9 +41862,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
+    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/R+D/research/Evaluation-2.xlsx
+++ b/R+D/research/Evaluation-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osins\Desktop\R&amp;D Project\lm-evaluation-harness\R+D\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975ED2EB-682B-4903-A76B-A553DAD8D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEED9A6-6244-490B-81E2-12A5B765CC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
+    <workbookView xWindow="1605" yWindow="2655" windowWidth="21600" windowHeight="11175" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="POC" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="354">
   <si>
     <t>MODEL</t>
   </si>
@@ -1090,6 +1090,57 @@
   </si>
   <si>
     <t>curl 34.207.226.68:8080/factors/10</t>
+  </si>
+  <si>
+    <t>winograde</t>
+  </si>
+  <si>
+    <t>head_qa_en</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>arc_challenge_mt_pl</t>
+  </si>
+  <si>
+    <t>ethics_cm</t>
+  </si>
+  <si>
+    <t>mmlu_pro</t>
+  </si>
+  <si>
+    <t>truthfulqa_gen</t>
+  </si>
+  <si>
+    <t>truthfulqa_mc1</t>
+  </si>
+  <si>
+    <t>webqs</t>
+  </si>
+  <si>
+    <t>nq_open</t>
+  </si>
+  <si>
+    <t>sudo yum install git -y</t>
+  </si>
+  <si>
+    <t>git clone https://git.wmi.amu.edu.pl/s444820/cloud-aws-webservice.git</t>
+  </si>
+  <si>
+    <t>cd cloud-aws-webservice/</t>
+  </si>
+  <si>
+    <t>sudo yum install iptables-services -y</t>
+  </si>
+  <si>
+    <t>sudo iptables -t nat -A PREROUTING -p tcp --dport 80 -j REDIRECT --to-port 8080</t>
+  </si>
+  <si>
+    <t>./webservice</t>
+  </si>
+  <si>
+    <t>sudo chmod +x ./webservice</t>
   </si>
 </sst>
 </file>
@@ -38007,7 +38058,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="N1" sqref="N1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39163,10 +39214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533557A5-8F9C-4270-B197-C402D9A86FC7}">
-  <dimension ref="C5:H20"/>
+  <dimension ref="C5:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39180,6 +39231,9 @@
       <c r="C6" t="s">
         <v>321</v>
       </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
       <c r="E6" s="44" t="s">
         <v>331</v>
       </c>
@@ -39191,6 +39245,9 @@
       <c r="C7" t="s">
         <v>188</v>
       </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
       <c r="E7" t="s">
         <v>333</v>
       </c>
@@ -39217,11 +39274,17 @@
       <c r="C12" t="s">
         <v>325</v>
       </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>326</v>
       </c>
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -39232,17 +39295,105 @@
       <c r="C15" t="s">
         <v>328</v>
       </c>
+      <c r="D15" t="s">
+        <v>339</v>
+      </c>
       <c r="H15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>342</v>
+      </c>
       <c r="H20" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/R+D/research/Evaluation-2.xlsx
+++ b/R+D/research/Evaluation-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osins\Desktop\R&amp;D Project\lm-evaluation-harness\R+D\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEED9A6-6244-490B-81E2-12A5B765CC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165862EB-D4DD-45E9-8BB8-5E485DABC59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2655" windowWidth="21600" windowHeight="11175" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="5" xr2:uid="{76F17BED-C1F5-429D-A3BE-DE652BCF7AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="POC" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="357">
   <si>
     <t>MODEL</t>
   </si>
@@ -1104,13 +1104,7 @@
     <t>arc_challenge_mt_pl</t>
   </si>
   <si>
-    <t>ethics_cm</t>
-  </si>
-  <si>
     <t>mmlu_pro</t>
-  </si>
-  <si>
-    <t>truthfulqa_gen</t>
   </si>
   <si>
     <t>truthfulqa_mc1</t>
@@ -1141,6 +1135,21 @@
   </si>
   <si>
     <t>sudo chmod +x ./webservice</t>
+  </si>
+  <si>
+    <t>ethics_cm ---</t>
+  </si>
+  <si>
+    <t>truthfulqa_gen---</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>gpqa_main_zeroshot</t>
   </si>
 </sst>
 </file>
@@ -37430,11 +37439,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="BP1:BR1"/>
@@ -37451,18 +37467,11 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="CN1:CP1"/>
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 D3:D64 D70:D73 D80:D1048576">
     <cfRule type="cellIs" dxfId="180" priority="184" operator="lessThan">
@@ -39216,8 +39225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533557A5-8F9C-4270-B197-C402D9A86FC7}">
   <dimension ref="C5:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39260,6 +39269,11 @@
         <v>334</v>
       </c>
     </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+    </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>323</v>
@@ -39325,12 +39339,15 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="D20" t="s">
+        <v>339</v>
       </c>
       <c r="H20" t="s">
         <v>336</v>
@@ -39338,57 +39355,69 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>343</v>
+        <v>353</v>
+      </c>
+      <c r="D21" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="D23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>356</v>
+      </c>
       <c r="J25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -41732,23 +41761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C76B75E76FBA8D43BC6655755334F736" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="dce19c37d23f49fdcb9dd2a67bb20b41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7adeddb8-0c6e-4b6e-8475-37b16e991332" xmlns:ns4="dbfdd765-989a-4dbb-b48c-5d457b2b54fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1d6f19661910fe906d3ed9295f1fb38" ns3:_="" ns4:_="">
     <xsd:import namespace="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
@@ -41987,10 +41999,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7adeddb8-0c6e-4b6e-8475-37b16e991332" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
+    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42013,20 +42053,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EB0E1A-CFDC-4726-9F2B-00597A4C96B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536A6EEC-738D-47C0-9CC8-1D182594CF5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7adeddb8-0c6e-4b6e-8475-37b16e991332"/>
-    <ds:schemaRef ds:uri="dbfdd765-989a-4dbb-b48c-5d457b2b54fe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>